--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\RAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38BA603-0BA4-4B13-8D82-C234526C7A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF44064-37B5-4C2B-AEB8-24E36A7FA459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29895" yWindow="4140" windowWidth="26325" windowHeight="17235" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -602,7 +602,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A45" sqref="A45:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +789,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B25"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +874,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1048,16 +1048,13 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>49</v>
       </c>
       <c r="B1" t="s">
@@ -1101,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1109,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1114,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1130,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1170,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\RAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\European Union\Models\eps-eu\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF44064-37B5-4C2B-AEB8-24E36A7FA459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F071ABD-A9D3-4F29-8CFC-50E2B0D8B0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -303,9 +303,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -343,7 +343,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -449,7 +449,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -591,7 +591,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -789,7 +789,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -874,7 +874,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\RAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF44064-37B5-4C2B-AEB8-24E36A7FA459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D10B98B-3B2C-474A-898A-D6B427FCD2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="3" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>Source:</t>
   </si>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t>for the electricity sector.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We also apply a very low credit for hydrogen plants because they require </t>
+  </si>
+  <si>
+    <t xml:space="preserve">access to a hydrogen supplier, most likely pipeline deliery, which </t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not exist in the US today and they would only be used in certain </t>
+  </si>
+  <si>
+    <t>unique circumstances.</t>
   </si>
 </sst>
 </file>
@@ -303,9 +315,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -343,7 +355,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -449,7 +461,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -591,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -599,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667665C7-8A8E-46D9-B686-64BA7741F669}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:A48"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,6 +785,26 @@
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1047,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1274,7 @@
         <v>47</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1250,7 +1282,7 @@
         <v>48</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\RAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D10B98B-3B2C-474A-898A-D6B427FCD2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73306826-ED3C-49C8-8A17-C52DC2D8832D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="3" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667665C7-8A8E-46D9-B686-64BA7741F669}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,7 +1274,7 @@
         <v>47</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1282,7 +1282,7 @@
         <v>48</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\RAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\United States\us-eps\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73306826-ED3C-49C8-8A17-C52DC2D8832D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A59768-112B-4192-A607-1839462A1F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20025" windowHeight="16860" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667665C7-8A8E-46D9-B686-64BA7741F669}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
@@ -820,8 +820,8 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -914,7 +914,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -938,7 +938,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\United States\us-eps\InputData\elec\RAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A59768-112B-4192-A607-1839462A1F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF44064-37B5-4C2B-AEB8-24E36A7FA459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20025" windowHeight="16860" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>Source:</t>
   </si>
@@ -228,18 +228,6 @@
   </si>
   <si>
     <t>for the electricity sector.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We also apply a very low credit for hydrogen plants because they require </t>
-  </si>
-  <si>
-    <t xml:space="preserve">access to a hydrogen supplier, most likely pipeline deliery, which </t>
-  </si>
-  <si>
-    <t xml:space="preserve">does not exist in the US today and they would only be used in certain </t>
-  </si>
-  <si>
-    <t>unique circumstances.</t>
   </si>
 </sst>
 </file>
@@ -315,9 +303,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -355,7 +343,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -461,7 +449,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -603,7 +591,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -611,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667665C7-8A8E-46D9-B686-64BA7741F669}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,26 +773,6 @@
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -820,8 +788,8 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +874,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -914,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -938,7 +906,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1080,7 +1048,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,7 +1242,7 @@
         <v>47</v>
       </c>
       <c r="B24">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1282,7 +1250,7 @@
         <v>48</v>
       </c>
       <c r="B25">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\RAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\United States\us-eps\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF44064-37B5-4C2B-AEB8-24E36A7FA459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A59768-112B-4192-A607-1839462A1F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20025" windowHeight="16860" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>Source:</t>
   </si>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t>for the electricity sector.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We also apply a very low credit for hydrogen plants because they require </t>
+  </si>
+  <si>
+    <t xml:space="preserve">access to a hydrogen supplier, most likely pipeline deliery, which </t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not exist in the US today and they would only be used in certain </t>
+  </si>
+  <si>
+    <t>unique circumstances.</t>
   </si>
 </sst>
 </file>
@@ -303,9 +315,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -343,7 +355,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -449,7 +461,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -591,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -599,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667665C7-8A8E-46D9-B686-64BA7741F669}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:A48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,6 +785,26 @@
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -788,8 +820,8 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -882,7 +914,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -906,7 +938,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1048,7 +1080,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1274,7 @@
         <v>47</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1250,7 +1282,7 @@
         <v>48</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\United States\us-eps\InputData\elec\RAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A59768-112B-4192-A607-1839462A1F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CC6B04-B346-4890-A318-734C137A4431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20025" windowHeight="16860" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -821,7 +821,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,8 +829,8 @@
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
@@ -842,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.6</v>
+        <v>0.46666666699999998</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -922,7 +922,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -930,7 +930,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CC6B04-B346-4890-A318-734C137A4431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A8C306-3056-445E-B8CA-ED2622C8BF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="22875" windowHeight="23115" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -842,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.46666666699999998</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -922,7 +922,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -930,7 +930,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -938,7 +938,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
